--- a/xlsx/義大利語_intext.xlsx
+++ b/xlsx/義大利語_intext.xlsx
@@ -3770,7 +3770,7 @@
         <v>148</v>
       </c>
       <c r="G75" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3886,7 +3886,7 @@
         <v>152</v>
       </c>
       <c r="G79" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3915,7 +3915,7 @@
         <v>154</v>
       </c>
       <c r="G80" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3944,7 +3944,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4031,7 +4031,7 @@
         <v>158</v>
       </c>
       <c r="G84" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -4292,7 +4292,7 @@
         <v>166</v>
       </c>
       <c r="G93" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4669,7 +4669,7 @@
         <v>180</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4756,7 +4756,7 @@
         <v>182</v>
       </c>
       <c r="G109" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>184</v>
       </c>
       <c r="G111" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4930,7 +4930,7 @@
         <v>188</v>
       </c>
       <c r="G115" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5162,7 +5162,7 @@
         <v>196</v>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5220,7 +5220,7 @@
         <v>198</v>
       </c>
       <c r="G125" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5597,7 +5597,7 @@
         <v>212</v>
       </c>
       <c r="G138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5626,7 +5626,7 @@
         <v>212</v>
       </c>
       <c r="G139" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5655,7 +5655,7 @@
         <v>214</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5684,7 +5684,7 @@
         <v>214</v>
       </c>
       <c r="G141" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5742,7 +5742,7 @@
         <v>216</v>
       </c>
       <c r="G143" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5800,7 +5800,7 @@
         <v>218</v>
       </c>
       <c r="G145" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
